--- a/Data/EC/NIT-9005567094.xlsx
+++ b/Data/EC/NIT-9005567094.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E39F7F-1144-44A2-A4F9-0E287EE6E17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A95B2BB1-B245-431E-9ADE-6E09CDB08B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C6F51566-F338-45C1-8283-C332FCD3AEF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{722274B0-363F-44FF-9388-CFF1C97DBF99}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,124 +71,124 @@
     <t>YEINER QUINTANA SALGUEDO</t>
   </si>
   <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -287,7 +287,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -300,9 +302,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -502,23 +502,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,10 +546,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,7 +602,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4011BA85-CF7F-E658-3DDD-C34E740DDC5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEACD1B7-247F-B401-7B8D-77ED781502C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468F524D-D666-4E92-B405-F5CF945D5211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC8AEB2-FA45-44EE-A54B-BFC83F6BE2A7}">
   <dimension ref="B2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1131,10 +1131,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1154,10 +1154,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1177,10 +1177,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1200,10 +1200,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1223,10 +1223,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1246,10 +1246,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1269,10 +1269,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1292,10 +1292,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1315,10 +1315,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1338,10 +1338,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1361,10 +1361,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1384,10 +1384,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1407,10 +1407,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1430,10 +1430,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1453,10 +1453,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1476,10 +1476,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1499,10 +1499,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1522,10 +1522,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1545,10 +1545,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1571,7 +1571,7 @@
         <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1594,7 +1594,7 @@
         <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1614,10 +1614,10 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1637,10 +1637,10 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1660,10 +1660,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1683,10 +1683,10 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1706,10 +1706,10 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1729,10 +1729,10 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1752,10 +1752,10 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1775,10 +1775,10 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1798,10 +1798,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1821,10 +1821,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1844,10 +1844,10 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1867,10 +1867,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1890,10 +1890,10 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1913,10 +1913,10 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1936,10 +1936,10 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1959,10 +1959,10 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1982,10 +1982,10 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2005,10 +2005,10 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2028,10 +2028,10 @@
         <v>50</v>
       </c>
       <c r="F55" s="24">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="24">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
